--- a/biology/Zoologie/Carpophage_de_la_Société/Carpophage_de_la_Société.xlsx
+++ b/biology/Zoologie/Carpophage_de_la_Société/Carpophage_de_la_Société.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula aurorae
 Le Carpophage de la Société (Ducula aurorae) est une espèce d'oiseau appartenant à la famille des  Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 51 cm de longueur. Le mâle est un peu plus grand que la femelle.
 La tête, le cou et le dessous du corps sont gris argenté. Le dos, les ailes et la queue sont bleus et vert foncé métallique. Les iris et les pattes sont rouges. Le bec est noir avec une protubérance à la base de la mandibule supérieure.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les îles de la Société et l'archipel Tuamotu.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts denses.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme divers fruits.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carpophage de la Société constitue une super-espèce avec les Carpophages pacifique, de Micronésie et des Marquises.
 La sous-espèce Ducula aurorae wilkesii (Peale, 1848) est acceptée par certains auteurs.
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carpophage_de_la_Soci%C3%A9t%C3%A9</t>
+          <t>Carpophage_de_la_Société</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est vulnérable car menacé par la diminution de son habitat et par la chasse. Il est très rare, peut-être même éteint à Tahiti.
 </t>
